--- a/기초/자동채우기.xlsx
+++ b/기초/자동채우기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778E7F91-1A42-4A94-A4A4-1DFA1CEF1DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FFB83-416B-42A2-998D-FC240192BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="7590" windowWidth="28800" windowHeight="15345" xr2:uid="{F3A16CAB-2A06-47FF-9F2A-C1CBF2FDB927}"/>
+    <workbookView xWindow="7710" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{F3A16CAB-2A06-47FF-9F2A-C1CBF2FDB927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>엑셀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,65 @@
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>6월</t>
+  </si>
+  <si>
+    <t>7월</t>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일</t>
+  </si>
+  <si>
+    <t>수요일</t>
+  </si>
+  <si>
+    <t>목요일</t>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>토요일</t>
+  </si>
+  <si>
+    <t>일요일</t>
   </si>
 </sst>
 </file>
@@ -410,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0E7834-9DAB-477A-A351-0102466EB5D2}">
-  <dimension ref="B4:D19"/>
+  <dimension ref="B4:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -423,12 +482,12 @@
     <col min="4" max="4" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -438,117 +497,216 @@
       <c r="D5" s="1">
         <v>44918</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>44920</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>44921</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>44922</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>44923</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>44924</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>44925</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>44926</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44932</v>
       </c>
     </row>
   </sheetData>
